--- a/Results/Evaluations/Relevance/RQ2.xlsx
+++ b/Results/Evaluations/Relevance/RQ2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Articles\12-ASE\Submission\Results\Evaluations\Relevance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Articles\12-ASE\Submission_Major\Results\Evaluations\Relevance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA2966D-F393-4D3A-8EAE-0156A7816574}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C309DA-14A3-455E-BD3B-3C48C8C4D11E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ2" sheetId="1" r:id="rId1"/>
@@ -13327,163 +13327,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">User Story: 
-As a user, I want to search and discover music or ringback tones similar to a given music video based on content similarity.	
-Acceptance Criteria:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. The user should be able to iput music videos in the search.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. The search results for the given music videos should be music or ringback tones.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. The search results should be returned based on the content similarity on genre, tempo, beat, and instrumental arragenment.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. The search results should be listed with similarity percentages.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">5. The search results could be sorted by different orders: similarity, release date, popularity, rating.
-6. The search results could be filtered by different conditions: similarity, release date.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">7. Proper search handling mechnism, such as partial match.
-8. For failuare search results, propser message should be prompt.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9. The system should provide a preview option for users to listen to a snippet of the results.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10. When there is large amount of similar results being returned, the display of the results should be no significant delay or latency.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-11. The results should be displayed by pages, for each page consist of X results. The number of total results and pages should be correctly displayed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Acceptance Criteria (generated from Model #3)
 </t>
     </r>
@@ -15097,6 +14940,163 @@
   </si>
   <si>
     <t>R=3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User Story: 
+As a user, I want to search and discover music or ringback tones similar to a given music video based on content similarity.	
+Acceptance Criteria:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. The user should be able to iput music videos in the search.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. The search results for the given music videos should be music or ringback tones.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. The search results should be returned based on the content similarity on genre, tempo, beat, and instrumental arragenment.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. The search results should be listed with similarity percentages.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5. The search results could be sorted by different orders: similarity, release date, popularity, rating.
+6. The search results could be filtered by different conditions: similarity, release date.
+7. Proper search handling mechnism, such as partial match.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8. For failuare search results, propser message should be prompt.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9. The system should provide a preview option for users to listen to a snippet of the results.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10. When there is large amount of similar results being returned, the display of the results should be no significant delay or latency.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+11. The results should be displayed by pages, for each page consist of X results. The number of total results and pages should be correctly displayed.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -15220,15 +15220,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -15239,6 +15230,15 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15521,19 +15521,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="G83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="82.26953125" customWidth="1"/>
-    <col min="10" max="10" width="130.7265625" customWidth="1"/>
+    <col min="9" max="9" width="82.28515625" customWidth="1"/>
+    <col min="10" max="10" width="130.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -15563,14 +15563,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="13">
         <v>30</v>
       </c>
       <c r="D2" s="1">
@@ -15595,10 +15595,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+    <row r="3" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="1">
         <v>2</v>
       </c>
@@ -15621,10 +15621,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+    <row r="4" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="1">
         <v>3</v>
       </c>
@@ -15647,12 +15647,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="8">
+    <row r="5" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="14">
         <v>63</v>
       </c>
       <c r="D5" s="3">
@@ -15677,10 +15677,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+    <row r="6" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="3">
         <v>2</v>
       </c>
@@ -15703,10 +15703,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+    <row r="7" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="3">
         <v>3</v>
       </c>
@@ -15729,12 +15729,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7">
+    <row r="8" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13">
         <v>3</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="13">
         <v>53</v>
       </c>
       <c r="D8" s="1">
@@ -15759,10 +15759,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+    <row r="9" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="1">
         <v>2</v>
       </c>
@@ -15785,10 +15785,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+    <row r="10" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="1">
         <v>3</v>
       </c>
@@ -15805,18 +15805,18 @@
         <v>5</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8">
+    <row r="11" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="14">
         <v>4</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="14">
         <v>37</v>
       </c>
       <c r="D11" s="3">
@@ -15841,10 +15841,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+    <row r="12" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="3">
         <v>2</v>
       </c>
@@ -15867,10 +15867,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+    <row r="13" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="3">
         <v>3</v>
       </c>
@@ -15893,12 +15893,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7">
+    <row r="14" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="13">
         <v>5</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="13">
         <v>26</v>
       </c>
       <c r="D14" s="1">
@@ -15923,10 +15923,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+    <row r="15" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="1">
         <v>2</v>
       </c>
@@ -15949,10 +15949,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+    <row r="16" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="1">
         <v>3</v>
       </c>
@@ -15975,12 +15975,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8">
+    <row r="17" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="14">
         <v>6</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="14">
         <v>57</v>
       </c>
       <c r="D17" s="3">
@@ -16005,10 +16005,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+    <row r="18" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="3">
         <v>2</v>
       </c>
@@ -16031,10 +16031,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+    <row r="19" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="3">
         <v>3</v>
       </c>
@@ -16057,12 +16057,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="7">
+    <row r="20" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="13">
         <v>7</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="13">
         <v>65</v>
       </c>
       <c r="D20" s="1">
@@ -16081,16 +16081,16 @@
         <v>4</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+    <row r="21" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="1">
         <v>2</v>
       </c>
@@ -16107,16 +16107,16 @@
         <v>3</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+    <row r="22" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="1">
         <v>3</v>
       </c>
@@ -16133,18 +16133,18 @@
         <v>4</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8">
+    <row r="23" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="14">
         <v>8</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="14">
         <v>2</v>
       </c>
       <c r="D23" s="3">
@@ -16163,16 +16163,16 @@
         <v>3</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+    <row r="24" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="3">
         <v>2</v>
       </c>
@@ -16189,16 +16189,16 @@
         <v>3</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+    <row r="25" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="3">
         <v>3</v>
       </c>
@@ -16215,18 +16215,18 @@
         <v>5</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="B26" s="7">
+    <row r="26" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="13">
         <v>9</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="13">
         <v>40</v>
       </c>
       <c r="D26" s="1">
@@ -16245,16 +16245,16 @@
         <v>2</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+    <row r="27" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="1">
         <v>2</v>
       </c>
@@ -16271,16 +16271,16 @@
         <v>2</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+    <row r="28" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="1">
         <v>3</v>
       </c>
@@ -16297,18 +16297,18 @@
         <v>4</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8">
+    <row r="29" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="14">
         <v>10</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="14">
         <v>58</v>
       </c>
       <c r="D29" s="3">
@@ -16333,10 +16333,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+    <row r="30" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="3">
         <v>2</v>
       </c>
@@ -16359,10 +16359,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+    <row r="31" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="3">
         <v>3</v>
       </c>
@@ -16385,14 +16385,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B32" s="7">
+    <row r="32" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="13">
         <v>1</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="13">
         <v>50</v>
       </c>
       <c r="D32" s="1">
@@ -16417,10 +16417,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+    <row r="33" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="1">
         <v>2</v>
       </c>
@@ -16443,10 +16443,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A34" s="9"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+    <row r="34" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="1">
         <v>3</v>
       </c>
@@ -16469,12 +16469,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="8">
+    <row r="35" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="14">
         <v>2</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="14">
         <v>27</v>
       </c>
       <c r="D35" s="3">
@@ -16499,10 +16499,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A36" s="9"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+    <row r="36" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="3">
         <v>2</v>
       </c>
@@ -16525,10 +16525,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A37" s="9"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+    <row r="37" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="3">
         <v>3</v>
       </c>
@@ -16551,12 +16551,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A38" s="9"/>
-      <c r="B38" s="7">
+    <row r="38" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="13">
         <v>3</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="13">
         <v>7</v>
       </c>
       <c r="D38" s="1">
@@ -16581,10 +16581,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A39" s="9"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
+    <row r="39" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="1">
         <v>2</v>
       </c>
@@ -16607,10 +16607,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A40" s="9"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+    <row r="40" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="1">
         <v>3</v>
       </c>
@@ -16633,12 +16633,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A41" s="9"/>
-      <c r="B41" s="8">
+    <row r="41" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="14">
         <v>4</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="14">
         <v>25</v>
       </c>
       <c r="D41" s="3">
@@ -16663,10 +16663,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A42" s="9"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+    <row r="42" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="3">
         <v>2</v>
       </c>
@@ -16689,10 +16689,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A43" s="9"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+    <row r="43" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="3">
         <v>3</v>
       </c>
@@ -16715,12 +16715,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A44" s="9"/>
-      <c r="B44" s="7">
+    <row r="44" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="13">
         <v>5</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="13">
         <v>11</v>
       </c>
       <c r="D44" s="1">
@@ -16739,16 +16739,16 @@
         <v>3</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A45" s="9"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+    <row r="45" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="1">
         <v>2</v>
       </c>
@@ -16765,16 +16765,16 @@
         <v>4</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A46" s="9"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
+    <row r="46" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="1">
         <v>3</v>
       </c>
@@ -16791,18 +16791,18 @@
         <v>5</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A47" s="9"/>
-      <c r="B47" s="8">
+    <row r="47" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="14">
         <v>6</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="14">
         <v>26</v>
       </c>
       <c r="D47" s="3">
@@ -16821,16 +16821,16 @@
         <v>4</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A48" s="9"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
+    <row r="48" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="3">
         <v>2</v>
       </c>
@@ -16853,10 +16853,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A49" s="9"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
+    <row r="49" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="3">
         <v>3</v>
       </c>
@@ -16879,12 +16879,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="174" x14ac:dyDescent="0.35">
-      <c r="A50" s="9"/>
-      <c r="B50" s="7">
+    <row r="50" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="13">
         <v>7</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="13">
         <v>16</v>
       </c>
       <c r="D50" s="1">
@@ -16909,10 +16909,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="9"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+    <row r="51" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="1">
         <v>2</v>
       </c>
@@ -16935,10 +16935,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="9"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+    <row r="52" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="1">
         <v>3</v>
       </c>
@@ -16961,12 +16961,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A53" s="9"/>
-      <c r="B53" s="8">
+    <row r="53" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="14">
         <v>8</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="14">
         <v>21</v>
       </c>
       <c r="D53" s="3">
@@ -16991,10 +16991,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A54" s="9"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
+    <row r="54" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="3">
         <v>2</v>
       </c>
@@ -17017,10 +17017,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A55" s="9"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
+    <row r="55" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="3">
         <v>3</v>
       </c>
@@ -17043,12 +17043,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A56" s="9"/>
-      <c r="B56" s="7">
+    <row r="56" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="13">
         <v>9</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="13">
         <v>8</v>
       </c>
       <c r="D56" s="1">
@@ -17073,10 +17073,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A57" s="9"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
+    <row r="57" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="1">
         <v>2</v>
       </c>
@@ -17099,10 +17099,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A58" s="9"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
+    <row r="58" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="1">
         <v>3</v>
       </c>
@@ -17125,12 +17125,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="9"/>
-      <c r="B59" s="8">
+    <row r="59" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="14">
         <v>10</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="14">
         <v>1</v>
       </c>
       <c r="D59" s="3">
@@ -17155,10 +17155,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="9"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
+    <row r="60" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="3">
         <v>2</v>
       </c>
@@ -17181,10 +17181,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="9"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
+    <row r="61" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="3">
         <v>3</v>
       </c>
@@ -17207,14 +17207,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A62" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B62" s="7">
+    <row r="62" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" s="13">
         <v>1</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="13">
         <v>6</v>
       </c>
       <c r="D62" s="1">
@@ -17239,10 +17239,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A63" s="9"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
+    <row r="63" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="1">
         <v>2</v>
       </c>
@@ -17265,10 +17265,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A64" s="9"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
+    <row r="64" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="1">
         <v>3</v>
       </c>
@@ -17291,12 +17291,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="9"/>
-      <c r="B65" s="8">
+    <row r="65" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="14">
         <v>2</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="14">
         <v>49</v>
       </c>
       <c r="D65" s="3">
@@ -17321,10 +17321,10 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="9"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
+    <row r="66" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="3">
         <v>2</v>
       </c>
@@ -17347,10 +17347,10 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="9"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
+    <row r="67" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="3">
         <v>3</v>
       </c>
@@ -17373,12 +17373,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="9"/>
-      <c r="B68" s="7">
+    <row r="68" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="13">
         <v>3</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="13">
         <v>5</v>
       </c>
       <c r="D68" s="1">
@@ -17403,10 +17403,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="9"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
+    <row r="69" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
       <c r="D69" s="1">
         <v>2</v>
       </c>
@@ -17429,10 +17429,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="9"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
+    <row r="70" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
       <c r="D70" s="1">
         <v>3</v>
       </c>
@@ -17455,12 +17455,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A71" s="9"/>
-      <c r="B71" s="8">
+    <row r="71" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="14">
         <v>4</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="14">
         <v>20</v>
       </c>
       <c r="D71" s="3">
@@ -17485,10 +17485,10 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A72" s="9"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
+    <row r="72" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="3">
         <v>2</v>
       </c>
@@ -17511,10 +17511,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A73" s="9"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
+    <row r="73" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="3">
         <v>3</v>
       </c>
@@ -17537,12 +17537,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A74" s="9"/>
-      <c r="B74" s="7">
+    <row r="74" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
+      <c r="B74" s="13">
         <v>5</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="13">
         <v>25</v>
       </c>
       <c r="D74" s="1">
@@ -17561,16 +17561,16 @@
         <v>4</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A75" s="9"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
+    <row r="75" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A75" s="15"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
       <c r="D75" s="1">
         <v>2</v>
       </c>
@@ -17587,16 +17587,16 @@
         <v>4</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A76" s="9"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
+    <row r="76" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A76" s="15"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
       <c r="D76" s="1">
         <v>3</v>
       </c>
@@ -17619,12 +17619,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A77" s="9"/>
-      <c r="B77" s="8">
+    <row r="77" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="14">
         <v>6</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="14">
         <v>50</v>
       </c>
       <c r="D77" s="3">
@@ -17649,10 +17649,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A78" s="9"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
+    <row r="78" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
       <c r="D78" s="3">
         <v>2</v>
       </c>
@@ -17675,10 +17675,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A79" s="9"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
+    <row r="79" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="3">
         <v>3</v>
       </c>
@@ -17701,12 +17701,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="9"/>
-      <c r="B80" s="7">
+    <row r="80" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A80" s="15"/>
+      <c r="B80" s="13">
         <v>7</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="13">
         <v>17</v>
       </c>
       <c r="D80" s="1">
@@ -17731,10 +17731,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="9"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
+    <row r="81" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
       <c r="D81" s="1">
         <v>2</v>
       </c>
@@ -17757,10 +17757,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="9"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
+    <row r="82" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A82" s="15"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
       <c r="D82" s="1">
         <v>3</v>
       </c>
@@ -17783,12 +17783,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A83" s="9"/>
-      <c r="B83" s="8">
+    <row r="83" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A83" s="15"/>
+      <c r="B83" s="14">
         <v>8</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="14">
         <v>3</v>
       </c>
       <c r="D83" s="3">
@@ -17813,10 +17813,10 @@
         <v>152</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A84" s="9"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
+    <row r="84" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A84" s="15"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="3">
         <v>2</v>
       </c>
@@ -17839,10 +17839,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A85" s="9"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
+    <row r="85" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A85" s="15"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
       <c r="D85" s="3">
         <v>3</v>
       </c>
@@ -17853,24 +17853,24 @@
         <v>13</v>
       </c>
       <c r="G85" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H85" s="3">
         <v>7</v>
       </c>
       <c r="I85" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J85" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="J85" s="4" t="s">
-        <v>171</v>
-      </c>
     </row>
-    <row r="86" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A86" s="9"/>
-      <c r="B86" s="7">
+    <row r="86" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A86" s="15"/>
+      <c r="B86" s="13">
         <v>9</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="13">
         <v>15</v>
       </c>
       <c r="D86" s="1">
@@ -17895,10 +17895,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A87" s="9"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
+    <row r="87" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A87" s="15"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
       <c r="D87" s="1">
         <v>2</v>
       </c>
@@ -17921,10 +17921,10 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A88" s="9"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
+    <row r="88" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A88" s="15"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
       <c r="D88" s="1">
         <v>3</v>
       </c>
@@ -17947,12 +17947,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="9"/>
-      <c r="B89" s="8">
+    <row r="89" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A89" s="15"/>
+      <c r="B89" s="14">
         <v>10</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="14">
         <v>21</v>
       </c>
       <c r="D89" s="3">
@@ -17977,10 +17977,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="9"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
+    <row r="90" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A90" s="15"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
       <c r="D90" s="3">
         <v>2</v>
       </c>
@@ -18003,10 +18003,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="9"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
+    <row r="91" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A91" s="15"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
       <c r="D91" s="3">
         <v>3</v>
       </c>
@@ -18105,71 +18105,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9DE54-B5E9-4B3C-B9E9-32AE3BEAE5C9}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="D2" s="9" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="12" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>195</v>
       </c>
+      <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.38584323084323091</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.43466931216931209</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="13">
-        <v>0.38584323084323091</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0.43466931216931209</v>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.42735033485033491</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.41253727753727759</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="13">
-        <v>0.42735033485033491</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0.41253727753727759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0.60292152292152301</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="C5" s="12">
+        <v>0.60595182595182595</v>
+      </c>
+      <c r="D5" s="12">
         <v>0.51285196285196277</v>
       </c>
     </row>
